--- a/covered storage mass balances/data/240412_castile.xlsx
+++ b/covered storage mass balances/data/240412_castile.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaiah/Desktop/pro dairy/prodairy/covered storage mass balances/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DCC4DD-4003-4D4C-9381-9802421875A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4300" yWindow="960" windowWidth="26320" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -49,8 +55,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,13 +119,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,7 +171,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -191,6 +205,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -225,9 +240,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -400,14 +416,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="41.5" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -453,10 +481,10 @@
         <v>46.75</v>
       </c>
       <c r="E2">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="F2">
-        <v>87.20999999999999</v>
+        <v>87.21</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -474,7 +502,7 @@
         <v>1472.59</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -509,7 +537,7 @@
         <v>2186.54</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -544,7 +572,7 @@
         <v>3400.98</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -567,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17319.81</v>
+        <v>17319.810000000001</v>
       </c>
       <c r="I5">
         <v>62781.3</v>
@@ -579,7 +607,7 @@
         <v>4696.67</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -587,7 +615,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>-8.609999999999999</v>
+        <v>-8.61</v>
       </c>
       <c r="D6">
         <v>6.85</v>
@@ -614,7 +642,7 @@
         <v>5204.34</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -649,7 +677,7 @@
         <v>6205.31</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -684,7 +712,7 @@
         <v>6205.31</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -701,7 +729,7 @@
         <v>4.83</v>
       </c>
       <c r="F9">
-        <v>71.98999999999999</v>
+        <v>71.989999999999995</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -719,7 +747,7 @@
         <v>7110.53</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -727,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-2.26</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="D10">
         <v>33.79</v>
@@ -736,7 +764,7 @@
         <v>23.62</v>
       </c>
       <c r="F10">
-        <v>78.73999999999999</v>
+        <v>78.739999999999995</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -754,7 +782,7 @@
         <v>8774.33</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -783,13 +811,13 @@
         <v>128018.26</v>
       </c>
       <c r="J11">
-        <v>839.3200000000001</v>
+        <v>839.32</v>
       </c>
       <c r="K11">
         <v>9613.65</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -800,7 +828,7 @@
         <v>-2.74</v>
       </c>
       <c r="D12">
-        <v>20.06</v>
+        <v>20.059999999999999</v>
       </c>
       <c r="E12">
         <v>4.32</v>
@@ -821,10 +849,10 @@
         <v>706.47</v>
       </c>
       <c r="K12">
-        <v>10320.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>10320.120000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -850,7 +878,7 @@
         <v>12200.96</v>
       </c>
       <c r="I13">
-        <v>149662.8</v>
+        <v>149662.79999999999</v>
       </c>
       <c r="J13">
         <v>912.75</v>
@@ -859,7 +887,7 @@
         <v>11232.87</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -867,7 +895,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D14">
         <v>44.7</v>
@@ -876,13 +904,13 @@
         <v>5.08</v>
       </c>
       <c r="F14">
-        <v>71.26000000000001</v>
+        <v>71.260000000000005</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19283.83</v>
+        <v>19283.830000000002</v>
       </c>
       <c r="I14">
         <v>168946.63</v>
@@ -894,7 +922,7 @@
         <v>12675.49</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -929,7 +957,7 @@
         <v>13770.82</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -964,7 +992,7 @@
         <v>13770.82</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -972,7 +1000,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>10.04</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="D17">
         <v>28.19</v>
@@ -981,7 +1009,7 @@
         <v>1.27</v>
       </c>
       <c r="F17">
-        <v>67.51000000000001</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="G17">
         <v>11.04</v>
@@ -993,13 +1021,13 @@
         <v>174768.95</v>
       </c>
       <c r="J17">
-        <v>533.6799999999999</v>
+        <v>533.67999999999995</v>
       </c>
       <c r="K17">
         <v>14304.5</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1034,7 +1062,7 @@
         <v>14304.5</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1069,7 +1097,7 @@
         <v>15357.05</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1104,7 +1132,7 @@
         <v>15357.05</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1139,7 +1167,7 @@
         <v>15357.05</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1165,7 +1193,7 @@
         <v>-1848.13</v>
       </c>
       <c r="I22">
-        <v>165482.86</v>
+        <v>165482.85999999999</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1174,7 +1202,7 @@
         <v>15357.05</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1209,7 +1237,7 @@
         <v>15357.05</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1220,7 +1248,7 @@
         <v>12.86</v>
       </c>
       <c r="D24">
-        <v>8.640000000000001</v>
+        <v>8.64</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1244,7 +1272,7 @@
         <v>15357.05</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1255,7 +1283,7 @@
         <v>14.88</v>
       </c>
       <c r="D25">
-        <v>33.52</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1279,7 +1307,7 @@
         <v>16101.68</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1287,7 +1315,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D26">
         <v>2.54</v>
@@ -1305,7 +1333,7 @@
         <v>-9144.73</v>
       </c>
       <c r="I26">
-        <v>142906.89</v>
+        <v>142906.89000000001</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1314,7 +1342,7 @@
         <v>16101.68</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1322,7 +1350,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D27">
         <v>15.99</v>
@@ -1331,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>80.56999999999999</v>
+        <v>80.569999999999993</v>
       </c>
       <c r="G27">
         <v>13.99</v>
@@ -1349,7 +1377,7 @@
         <v>16159.57</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1381,10 +1409,10 @@
         <v>1560.17</v>
       </c>
       <c r="K28">
-        <v>17719.74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>17719.740000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1392,7 +1420,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>19.76</v>
+        <v>19.760000000000002</v>
       </c>
       <c r="D29">
         <v>13.97</v>
@@ -1401,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>71.70999999999999</v>
+        <v>71.709999999999994</v>
       </c>
       <c r="G29">
         <v>23.73</v>
@@ -1416,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>17719.74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>17719.740000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1436,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="G30">
         <v>20.36</v>
@@ -1451,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>17719.74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>17719.740000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1480,7 +1508,7 @@
         <v>8532.15</v>
       </c>
       <c r="I31">
-        <v>166814.58</v>
+        <v>166814.57999999999</v>
       </c>
       <c r="J31">
         <v>638.29</v>
@@ -1489,7 +1517,7 @@
         <v>18358.03</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1497,7 +1525,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>17.94</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="D32">
         <v>12.45</v>
@@ -1506,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>70.79000000000001</v>
+        <v>70.790000000000006</v>
       </c>
       <c r="G32">
         <v>22.55</v>
@@ -1515,7 +1543,7 @@
         <v>-3911.53</v>
       </c>
       <c r="I32">
-        <v>162903.05</v>
+        <v>162903.04999999999</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1524,7 +1552,7 @@
         <v>18358.03</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1532,7 +1560,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>19.01</v>
+        <v>19.010000000000002</v>
       </c>
       <c r="D33">
         <v>18.79</v>
@@ -1541,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>77.90000000000001</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="G33">
         <v>15.43</v>
@@ -1550,7 +1578,7 @@
         <v>1301.22</v>
       </c>
       <c r="I33">
-        <v>164204.27</v>
+        <v>164204.26999999999</v>
       </c>
       <c r="J33">
         <v>97.34</v>
@@ -1559,7 +1587,7 @@
         <v>18455.37</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1567,7 +1595,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>18.17</v>
+        <v>18.170000000000002</v>
       </c>
       <c r="D34">
         <v>21.34</v>
@@ -1591,10 +1619,10 @@
         <v>247.44</v>
       </c>
       <c r="K34">
-        <v>18702.81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>18702.810000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1611,10 +1639,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>75.09999999999999</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="G35">
-        <v>18.35</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="H35">
         <v>-2580.94</v>
@@ -1626,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>18702.81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>18702.810000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1646,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>72.59999999999999</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="G36">
-        <v>20.26</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="H36">
         <v>-6370.85</v>
@@ -1661,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>18702.81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>18702.810000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1696,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>18702.81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>18702.810000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1725,16 +1753,16 @@
         <v>-3513.3</v>
       </c>
       <c r="I38">
-        <v>154394.64</v>
+        <v>154394.64000000001</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>18702.81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>18702.810000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1751,25 +1779,25 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>71.76000000000001</v>
+        <v>71.760000000000005</v>
       </c>
       <c r="G39">
-        <v>18.65</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="H39">
         <v>-6829.97</v>
       </c>
       <c r="I39">
-        <v>147564.67</v>
+        <v>147564.67000000001</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>18702.81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>18702.810000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1780,19 +1808,19 @@
         <v>13.33</v>
       </c>
       <c r="D40">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>74.29000000000001</v>
+        <v>74.290000000000006</v>
       </c>
       <c r="G40">
         <v>15.37</v>
       </c>
       <c r="H40">
-        <v>-5168.14</v>
+        <v>-5168.1400000000003</v>
       </c>
       <c r="I40">
         <v>142396.53</v>
@@ -1801,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>18702.81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>18702.810000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1821,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>71.45999999999999</v>
+        <v>71.459999999999994</v>
       </c>
       <c r="G41">
         <v>22.53</v>
@@ -1836,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>18702.81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>18702.810000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1874,7 +1902,7 @@
         <v>19696.53</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1900,7 +1928,7 @@
         <v>11214.68</v>
       </c>
       <c r="I43">
-        <v>163673.83</v>
+        <v>163673.82999999999</v>
       </c>
       <c r="J43">
         <v>838.97</v>
@@ -1909,7 +1937,7 @@
         <v>20535.5</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1920,7 +1948,7 @@
         <v>12.03</v>
       </c>
       <c r="D44">
-        <v>8.380000000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1944,7 +1972,7 @@
         <v>20535.5</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1967,7 +1995,7 @@
         <v>0.82</v>
       </c>
       <c r="H45">
-        <v>9520.690000000001</v>
+        <v>9520.69</v>
       </c>
       <c r="I45">
         <v>168616.2</v>
@@ -1979,7 +2007,7 @@
         <v>21247.74</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1996,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>68.93000000000001</v>
+        <v>68.930000000000007</v>
       </c>
       <c r="G46">
         <v>7.95</v>
@@ -2014,7 +2042,7 @@
         <v>21319.13</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2049,7 +2077,7 @@
         <v>21661.31</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2066,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>71.76000000000001</v>
+        <v>71.760000000000005</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2084,7 +2112,7 @@
         <v>22161.79</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2116,10 +2144,10 @@
         <v>1435.09</v>
       </c>
       <c r="K49">
-        <v>23596.88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>23596.880000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2136,13 +2164,13 @@
         <v>11.18</v>
       </c>
       <c r="F50">
-        <v>76.06999999999999</v>
+        <v>76.069999999999993</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>19479.85</v>
+        <v>19479.849999999999</v>
       </c>
       <c r="I50">
         <v>219497.46</v>
@@ -2154,7 +2182,7 @@
         <v>25054.17</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2189,7 +2217,7 @@
         <v>25105.56</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2221,10 +2249,10 @@
         <v>772.84</v>
       </c>
       <c r="K52">
-        <v>25878.4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>25878.400000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2253,7 +2281,7 @@
         <v>243600.82</v>
       </c>
       <c r="J53">
-        <v>978.9400000000001</v>
+        <v>978.94</v>
       </c>
       <c r="K53">
         <v>26857.34</v>
